--- a/DDAf_2024_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab20.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B1B82856-68BE-433E-B5CF-78089AD4A232}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B703B6-87DE-4D7F-A55A-11599DD4E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{557A61FA-FC06-4593-83FE-9B8645A8C7DF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A04D868-A36F-4793-A6A9-B0C72DFC3205}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -1706,20 +1706,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BEC4FE9-34F4-487C-9B28-F5519C1B0EE1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0500B1-6218-43C5-9A02-FDC0CE43AA98}">
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.453125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="159" bestFit="1" customWidth="1"/>
-    <col min="4" max="16" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="159" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
         <v>0</v>
@@ -1738,7 +1738,7 @@
       <c r="O1" s="3"/>
       <c r="P1" s="5"/>
     </row>
-    <row r="2" spans="1:16" ht="84.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:16" ht="90.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
@@ -1788,7 +1788,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>17</v>
       </c>
@@ -1838,7 +1838,7 @@
         <v>579.40750354560305</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>19</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>-52.306658468481999</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>21</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>278.79145414218101</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>24</v>
       </c>
@@ -1988,7 +1988,7 @@
         <v>28.233699166879699</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>26</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>28</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>3326.6134323940901</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>30</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>961.02290345829999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="18" t="s">
         <v>32</v>
       </c>
@@ -2188,7 +2188,7 @@
         <v>11674.0348031133</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="18" t="s">
         <v>34</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>985.00731341323205</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="18" t="s">
         <v>36</v>
       </c>
@@ -2288,7 +2288,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="55" t="s">
         <v>38</v>
       </c>
@@ -2338,7 +2338,7 @@
         <v>17780.804450765099</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
         <v>40</v>
       </c>
@@ -2388,7 +2388,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
         <v>42</v>
       </c>
@@ -2438,7 +2438,7 @@
         <v>1474.06214216119</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
         <v>44</v>
       </c>
@@ -2488,7 +2488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
         <v>46</v>
       </c>
@@ -2538,7 +2538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
         <v>48</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
         <v>50</v>
       </c>
@@ -2638,7 +2638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
         <v>52</v>
       </c>
@@ -2688,7 +2688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
         <v>54</v>
       </c>
@@ -2738,7 +2738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="22" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="18" t="s">
         <v>56</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>3.59167341045766</v>
       </c>
     </row>
-    <row r="23" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="55" t="s">
         <v>38</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>1477.6538155716501</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="18" t="s">
         <v>59</v>
       </c>
@@ -2888,7 +2888,7 @@
         <v>1.1427056207703199</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="18" t="s">
         <v>61</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>48.424862565464998</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="18" t="s">
         <v>63</v>
       </c>
@@ -2988,7 +2988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="18" t="s">
         <v>65</v>
       </c>
@@ -3038,7 +3038,7 @@
         <v>-243.05947076977</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="18" t="s">
         <v>67</v>
       </c>
@@ -3088,7 +3088,7 @@
         <v>4657.2190763701801</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="18" t="s">
         <v>69</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>294.33784150643601</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="18" t="s">
         <v>71</v>
       </c>
@@ -3188,7 +3188,7 @@
         <v>3857.3170406506501</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="18" t="s">
         <v>73</v>
       </c>
@@ -3238,7 +3238,7 @@
         <v>399.54026310249299</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="18" t="s">
         <v>75</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>197.660117079169</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="18" t="s">
         <v>77</v>
       </c>
@@ -3338,7 +3338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="18" t="s">
         <v>79</v>
       </c>
@@ -3388,7 +3388,7 @@
         <v>736.4</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="18" t="s">
         <v>81</v>
       </c>
@@ -3438,7 +3438,7 @@
         <v>2334.6065811691501</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="18" t="s">
         <v>83</v>
       </c>
@@ -3488,7 +3488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
         <v>85</v>
       </c>
@@ -3538,7 +3538,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="55" t="s">
         <v>38</v>
       </c>
@@ -3588,7 +3588,7 @@
         <v>12283.5890172945</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="18" t="s">
         <v>88</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>622.34798074132505</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
         <v>90</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>20867.18</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
         <v>92</v>
       </c>
@@ -3738,7 +3738,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
         <v>94</v>
       </c>
@@ -3788,7 +3788,7 @@
         <v>-47.890268955414001</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="18" t="s">
         <v>96</v>
       </c>
@@ -3838,7 +3838,7 @@
         <v>1968.6850075453599</v>
       </c>
     </row>
-    <row r="44" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
         <v>98</v>
       </c>
@@ -3888,7 +3888,7 @@
         <v>2742.1703827812898</v>
       </c>
     </row>
-    <row r="45" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="55" t="s">
         <v>38</v>
       </c>
@@ -3938,7 +3938,7 @@
         <v>26152.493102112599</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="18" t="s">
         <v>101</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="18" t="s">
         <v>103</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="18" t="s">
         <v>105</v>
       </c>
@@ -4088,7 +4088,7 @@
         <v>55.437074376563999</v>
       </c>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A49" s="18" t="s">
         <v>107</v>
       </c>
@@ -4138,7 +4138,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A50" s="18" t="s">
         <v>109</v>
       </c>
@@ -4188,7 +4188,7 @@
         <v>-16.203702851361999</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A51" s="18" t="s">
         <v>111</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>414.65605729968797</v>
       </c>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A52" s="18" t="s">
         <v>113</v>
       </c>
@@ -4288,7 +4288,7 @@
         <v>-77.680000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A53" s="18" t="s">
         <v>115</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A54" s="18" t="s">
         <v>117</v>
       </c>
@@ -4388,7 +4388,7 @@
         <v>119.605528055785</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>119</v>
       </c>
@@ -4438,7 +4438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A56" s="18" t="s">
         <v>121</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A57" s="18" t="s">
         <v>123</v>
       </c>
@@ -4538,7 +4538,7 @@
         <v>7623.4273805011499</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A58" s="18" t="s">
         <v>125</v>
       </c>
@@ -4588,7 +4588,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A59" s="18" t="s">
         <v>127</v>
       </c>
@@ -4638,7 +4638,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="60" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
         <v>129</v>
       </c>
@@ -4688,7 +4688,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="61" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="55"/>
       <c r="B61" s="56" t="s">
         <v>131</v>
@@ -4736,7 +4736,7 @@
         <v>8119.2423373818301</v>
       </c>
     </row>
-    <row r="62" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="94"/>
       <c r="B62" s="95" t="s">
         <v>132</v>
@@ -4784,7 +4784,7 @@
         <v>65813.782723125696</v>
       </c>
     </row>
-    <row r="63" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="94"/>
       <c r="B63" s="104" t="s">
         <v>133</v>
@@ -4832,7 +4832,7 @@
         <v>1684880.2612320301</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A64" s="113"/>
       <c r="B64" s="114" t="s">
         <v>134</v>
@@ -4880,7 +4880,7 @@
         <v>84845.164261563405</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A65" s="113"/>
       <c r="B65" s="104" t="s">
         <v>135</v>
@@ -4928,7 +4928,7 @@
         <v>83485.560831718001</v>
       </c>
     </row>
-    <row r="66" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="113"/>
       <c r="B66" s="130" t="s">
         <v>136</v>
@@ -4976,7 +4976,7 @@
         <v>1750694.0439551601</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A67" s="113"/>
       <c r="B67" s="104" t="s">
         <v>137</v>
@@ -5024,7 +5024,7 @@
         <v>36420.3381676313</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A68" s="113"/>
       <c r="B68" s="104" t="s">
         <v>138</v>
@@ -5072,7 +5072,7 @@
         <v>35858.519005676098</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A69" s="113"/>
       <c r="B69" s="104" t="s">
         <v>139</v>
@@ -5120,7 +5120,7 @@
         <v>5793.1593394726697</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A70" s="113"/>
       <c r="B70" s="104" t="s">
         <v>140</v>
@@ -5168,7 +5168,7 @@
         <v>2456.6015822197401</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A71" s="113"/>
       <c r="B71" s="104" t="s">
         <v>141</v>
@@ -5216,7 +5216,7 @@
         <v>8119.2423373818301</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A72" s="113"/>
       <c r="B72" s="104" t="s">
         <v>142</v>
@@ -5264,7 +5264,7 @@
         <v>7533.5910493350302</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A73" s="113"/>
       <c r="B73" s="104" t="s">
         <v>143</v>
@@ -5312,7 +5312,7 @@
         <v>22131.262155622098</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="113"/>
       <c r="B74" s="104" t="s">
         <v>143</v>
@@ -5360,7 +5360,7 @@
         <v>5285.31310211256</v>
       </c>
     </row>
-    <row r="75" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="113"/>
       <c r="B75" s="104" t="s">
         <v>144</v>
@@ -5408,7 +5408,7 @@
         <v>3965.0496837267201</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="113"/>
       <c r="B76" s="139" t="s">
         <v>145</v>
@@ -5456,7 +5456,7 @@
         <v>24186.567867903199</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="113"/>
       <c r="B77" s="104" t="s">
         <v>146</v>
@@ -5504,7 +5504,7 @@
         <v>67984.603115759193</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="113"/>
       <c r="B78" s="104" t="s">
         <v>146</v>
@@ -5552,7 +5552,7 @@
         <v>662614.94532435399</v>
       </c>
     </row>
-    <row r="79" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="113"/>
       <c r="B79" s="130" t="s">
         <v>147</v>
@@ -5600,7 +5600,7 @@
         <v>1576897.25563492</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="113"/>
       <c r="B80" s="104" t="s">
         <v>148</v>
@@ -5648,7 +5648,7 @@
         <v>1945.7022897080799</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="113"/>
       <c r="B81" s="104" t="s">
         <v>149</v>
@@ -5696,7 +5696,7 @@
         <v>-38377.429486729001</v>
       </c>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="113"/>
       <c r="B82" s="104" t="s">
         <v>150</v>
@@ -5744,7 +5744,7 @@
         <v>63868.080433417599</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="113"/>
       <c r="B83" s="104" t="s">
         <v>151</v>
@@ -5792,7 +5792,7 @@
         <v>1723257.69071876</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="113"/>
       <c r="B84" s="139" t="s">
         <v>152</v>
@@ -5840,7 +5840,7 @@
         <v>6951.8404726068202</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="113"/>
       <c r="B85" s="148" t="s">
         <v>153</v>
@@ -5888,7 +5888,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="113"/>
       <c r="B86" s="104" t="s">
         <v>154</v>
@@ -5936,7 +5936,7 @@
         <v>42224.214044685898</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="113"/>
       <c r="B87" s="104" t="s">
         <v>155</v>
@@ -5984,7 +5984,7 @@
         <v>170460.18448040099</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="113"/>
       <c r="B88" s="104" t="s">
         <v>156</v>
@@ -6032,7 +6032,7 @@
         <v>16440.0680887538</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="113"/>
       <c r="B89" s="104" t="s">
         <v>157</v>
@@ -6080,7 +6080,7 @@
         <v>20281.550576576999</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="113"/>
       <c r="B90" s="130" t="s">
         <v>158</v>
@@ -6128,7 +6128,7 @@
         <v>1494336.18629213</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="113"/>
       <c r="B91" s="104" t="s">
         <v>159</v>
@@ -6176,7 +6176,7 @@
         <v>8472.0779613738196</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="113"/>
       <c r="B92" s="104" t="s">
         <v>160</v>
@@ -6224,7 +6224,7 @@
         <v>13482.620568792599</v>
       </c>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="113"/>
       <c r="B93" s="104" t="s">
         <v>161</v>
@@ -6272,7 +6272,7 @@
         <v>4115.1486111376098</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="113"/>
       <c r="B94" s="104" t="s">
         <v>162</v>
@@ -6320,7 +6320,7 @@
         <v>-6997.2760421856001</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="113"/>
       <c r="B95" s="104" t="s">
         <v>163</v>
@@ -6368,7 +6368,7 @@
         <v>2132.60660058653</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="113"/>
       <c r="B96" s="104" t="s">
         <v>164</v>
@@ -6416,7 +6416,7 @@
         <v>26010.662310617499</v>
       </c>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="113"/>
       <c r="B97" s="139" t="s">
         <v>165</v>
@@ -6464,7 +6464,7 @@
         <v>19031.439496866398</v>
       </c>
     </row>
-    <row r="98" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="113"/>
       <c r="B98" s="130" t="s">
         <v>166</v>
@@ -6512,7 +6512,7 @@
         <v>12292.2842464485</v>
       </c>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A99" s="150"/>
       <c r="B99" s="151"/>
       <c r="C99" s="112"/>
@@ -6530,7 +6530,7 @@
       <c r="O99" s="112"/>
       <c r="P99" s="112"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
         <v>167</v>
       </c>
@@ -6549,7 +6549,7 @@
       <c r="O100" s="153"/>
       <c r="P100" s="153"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
         <v>168</v>
       </c>
@@ -6568,7 +6568,7 @@
       <c r="O101" s="153"/>
       <c r="P101" s="153"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
         <v>169</v>
       </c>
@@ -6587,7 +6587,7 @@
       <c r="O102" s="153"/>
       <c r="P102" s="153"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
         <v>170</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="O103" s="153"/>
       <c r="P103" s="153"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
         <v>171</v>
       </c>
@@ -6625,7 +6625,7 @@
       <c r="O104" s="153"/>
       <c r="P104" s="153"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C105" s="153"/>
       <c r="D105" s="153"/>
       <c r="E105" s="153"/>
@@ -6641,7 +6641,7 @@
       <c r="O105" s="153"/>
       <c r="P105" s="153"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B106" s="155"/>
       <c r="C106" s="153"/>
       <c r="D106" s="153"/>
@@ -6658,7 +6658,7 @@
       <c r="O106" s="153"/>
       <c r="P106" s="153"/>
     </row>
-    <row r="107" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="156" t="s">
         <v>172</v>
       </c>
@@ -6677,7 +6677,7 @@
       <c r="O107" s="153"/>
       <c r="P107" s="153"/>
     </row>
-    <row r="108" spans="1:16" ht="15.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B108" s="156"/>
       <c r="C108" s="153"/>
       <c r="D108" s="153"/>
@@ -6694,7 +6694,7 @@
       <c r="O108" s="153"/>
       <c r="P108" s="153"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
         <v>174</v>
       </c>
@@ -6713,7 +6713,7 @@
       <c r="O109" s="153"/>
       <c r="P109" s="153"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
         <v>175</v>
       </c>
@@ -6732,7 +6732,7 @@
       <c r="O110" s="153"/>
       <c r="P110" s="153"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="160" t="s">
         <v>176</v>
       </c>
@@ -6751,7 +6751,7 @@
       <c r="O111" s="153"/>
       <c r="P111" s="153"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="2" t="s">
         <v>173</v>
       </c>
@@ -6770,7 +6770,7 @@
       <c r="O112" s="153"/>
       <c r="P112" s="153"/>
     </row>
-    <row r="113" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="113" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B113" s="2"/>
       <c r="C113" s="153"/>
       <c r="D113" s="153"/>
@@ -6787,7 +6787,7 @@
       <c r="O113" s="153"/>
       <c r="P113" s="153"/>
     </row>
-    <row r="114" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="114" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B114" s="2"/>
       <c r="C114" s="153"/>
       <c r="D114" s="153"/>
@@ -6804,7 +6804,7 @@
       <c r="O114" s="153"/>
       <c r="P114" s="153"/>
     </row>
-    <row r="115" spans="2:16" x14ac:dyDescent="0.35">
+    <row r="115" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B115" s="155"/>
       <c r="C115" s="157"/>
       <c r="D115" s="157"/>
@@ -6823,11 +6823,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{F586A965-DA0E-4791-BA38-11BBC513F437}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{78FC22BE-7A08-4084-9FFC-2E0A9EFFE152}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{A3C0DCB1-9DCB-4329-BC0A-B581B41982C2}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{94CBA30C-A486-4E7E-B6AE-181CD6332F8D}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{BF821249-9AB4-4E2A-8C5D-F04B7CC1D8F5}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{55A5291B-E85C-4D35-8BEC-AEE4274AFB5E}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4F83AFB8-729E-4E8C-9B3D-20181502F2A0}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{6E5A7D8C-86AC-4FB5-A34B-AC5AA810541C}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{4C2BF5EC-C25D-410D-A531-043090165490}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{F878A0FE-2EF1-4474-BFB0-DB1CAFF767F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F1B703B6-87DE-4D7F-A55A-11599DD4E6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D34B49-9873-40D7-B6E5-C8C08E5F0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2A04D868-A36F-4793-A6A9-B0C72DFC3205}"/>
+    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BC72C0E2-4545-44A6-9942-80B6ADF7CDC8}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -707,17 +707,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="12"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <i/>
-      <u/>
-      <sz val="12"/>
+      <sz val="11"/>
       <color rgb="FFD42C2D"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -1385,12 +1385,12 @@
     </xf>
     <xf numFmtId="37" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1706,7 +1706,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD0500B1-6218-43C5-9A02-FDC0CE43AA98}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B67382-1DDA-4882-9C04-512560D5A836}">
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -1715,7 +1715,7 @@
   <cols>
     <col min="1" max="1" width="5.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="159" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="160" bestFit="1" customWidth="1"/>
     <col min="4" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -6642,7 +6642,6 @@
       <c r="P105" s="153"/>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B106" s="155"/>
       <c r="C106" s="153"/>
       <c r="D106" s="153"/>
       <c r="E106" s="153"/>
@@ -6659,7 +6658,7 @@
       <c r="P106" s="153"/>
     </row>
     <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="156" t="s">
+      <c r="B107" s="155" t="s">
         <v>172</v>
       </c>
       <c r="C107" s="153"/>
@@ -6678,7 +6677,7 @@
       <c r="P107" s="153"/>
     </row>
     <row r="108" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="156"/>
+      <c r="B108" s="155"/>
       <c r="C108" s="153"/>
       <c r="D108" s="153"/>
       <c r="E108" s="153"/>
@@ -6733,7 +6732,7 @@
       <c r="P110" s="153"/>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B111" s="160" t="s">
+      <c r="B111" s="156" t="s">
         <v>176</v>
       </c>
       <c r="C111" s="153"/>
@@ -6752,7 +6751,7 @@
       <c r="P111" s="153"/>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B112" s="2" t="s">
+      <c r="B112" s="156" t="s">
         <v>173</v>
       </c>
       <c r="C112" s="153"/>
@@ -6805,29 +6804,29 @@
       <c r="P114" s="153"/>
     </row>
     <row r="115" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B115" s="155"/>
-      <c r="C115" s="157"/>
-      <c r="D115" s="157"/>
-      <c r="E115" s="157"/>
-      <c r="F115" s="157"/>
-      <c r="G115" s="157"/>
-      <c r="H115" s="158"/>
-      <c r="I115" s="157"/>
-      <c r="J115" s="157"/>
-      <c r="K115" s="157"/>
-      <c r="L115" s="157"/>
-      <c r="M115" s="157"/>
-      <c r="N115" s="157"/>
-      <c r="O115" s="157"/>
-      <c r="P115" s="157"/>
+      <c r="B115" s="157"/>
+      <c r="C115" s="158"/>
+      <c r="D115" s="158"/>
+      <c r="E115" s="158"/>
+      <c r="F115" s="158"/>
+      <c r="G115" s="158"/>
+      <c r="H115" s="159"/>
+      <c r="I115" s="158"/>
+      <c r="J115" s="158"/>
+      <c r="K115" s="158"/>
+      <c r="L115" s="158"/>
+      <c r="M115" s="158"/>
+      <c r="N115" s="158"/>
+      <c r="O115" s="158"/>
+      <c r="P115" s="158"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{55A5291B-E85C-4D35-8BEC-AEE4274AFB5E}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{4F83AFB8-729E-4E8C-9B3D-20181502F2A0}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{6E5A7D8C-86AC-4FB5-A34B-AC5AA810541C}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{4C2BF5EC-C25D-410D-A531-043090165490}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{F878A0FE-2EF1-4474-BFB0-DB1CAFF767F3}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{896FC0C7-661E-4E9B-B157-C12307699454}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7D1FD3B0-DD04-498F-8975-1AE460AD1476}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{E0ACB8F0-D06D-47F5-899D-0B12B2E367CF}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{5A647604-B0A0-4033-85B0-497FBE1D08F0}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{EA02FE21-8360-42C5-9F6B-90EAD46116EC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>

--- a/DDAf_2024_Tableau_annexe_Tab20.xlsx
+++ b/DDAf_2024_Tableau_annexe_Tab20.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\main.oecd.org\ASgenDEV\AFRICASTATS\Statistical Annex (Final written files are in S)\Output tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7D34B49-9873-40D7-B6E5-C8C08E5F0DA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0E32829-8A0F-447A-BB8C-C9B6C4EFA589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5400" windowWidth="38640" windowHeight="21120" xr2:uid="{BC72C0E2-4545-44A6-9942-80B6ADF7CDC8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{5BADEC77-BE16-425A-8306-74AF224D77DC}"/>
   </bookViews>
   <sheets>
     <sheet name="Tab20" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="179">
   <si>
     <t>Tableau 20 : Apports financiers extérieurs</t>
   </si>
@@ -473,13 +473,19 @@
     <t>UMA</t>
   </si>
   <si>
+    <t>PALOP</t>
+  </si>
+  <si>
     <t>ASEAN</t>
   </si>
   <si>
     <t>MERCOSUR</t>
   </si>
   <si>
-    <t>EU28</t>
+    <t>EU27</t>
+  </si>
+  <si>
+    <t>OCDE</t>
   </si>
   <si>
     <t xml:space="preserve">Afrique, pays riches en ressources </t>
@@ -1706,7 +1712,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12B67382-1DDA-4882-9C04-512560D5A836}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5CD30BE-FFC6-44C8-BC92-EBF898CBAE98}">
   <dimension ref="A1:P115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
@@ -5315,7 +5321,7 @@
     <row r="74" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A74" s="113"/>
       <c r="B74" s="104" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C74" s="123">
         <v>0.99212552344107996</v>
@@ -5363,7 +5369,7 @@
     <row r="75" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="113"/>
       <c r="B75" s="104" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C75" s="105">
         <v>-2.1339807627970999</v>
@@ -5411,7 +5417,7 @@
     <row r="76" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A76" s="113"/>
       <c r="B76" s="139" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C76" s="140">
         <v>4.3743457643444001</v>
@@ -5459,7 +5465,7 @@
     <row r="77" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A77" s="113"/>
       <c r="B77" s="104" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C77" s="123">
         <v>4.1454171184608004</v>
@@ -5507,7 +5513,7 @@
     <row r="78" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A78" s="113"/>
       <c r="B78" s="104" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C78" s="123">
         <v>-4.7420302866199998E-2</v>
@@ -5555,7 +5561,7 @@
     <row r="79" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="113"/>
       <c r="B79" s="130" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C79" s="131">
         <v>0.90217935898704005</v>
@@ -5603,7 +5609,7 @@
     <row r="80" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A80" s="113"/>
       <c r="B80" s="104" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C80" s="123">
         <v>-0.22515953480379999</v>
@@ -5651,7 +5657,7 @@
     <row r="81" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A81" s="113"/>
       <c r="B81" s="104" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C81" s="123">
         <v>0.44221810853013999</v>
@@ -5699,7 +5705,7 @@
     <row r="82" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A82" s="113"/>
       <c r="B82" s="104" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C82" s="123">
         <v>1.8843717015750501</v>
@@ -5747,7 +5753,7 @@
     <row r="83" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="113"/>
       <c r="B83" s="104" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C83" s="105">
         <v>1.4363005155176001</v>
@@ -5795,7 +5801,7 @@
     <row r="84" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A84" s="113"/>
       <c r="B84" s="139" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C84" s="140">
         <v>2.9207781186665098</v>
@@ -5843,7 +5849,7 @@
     <row r="85" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A85" s="113"/>
       <c r="B85" s="148" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C85" s="123" t="s">
         <v>23</v>
@@ -5891,7 +5897,7 @@
     <row r="86" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A86" s="113"/>
       <c r="B86" s="104" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C86" s="123">
         <v>1.1356594865796199</v>
@@ -5939,7 +5945,7 @@
     <row r="87" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A87" s="113"/>
       <c r="B87" s="104" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C87" s="123">
         <v>1.5916607358477299</v>
@@ -5987,7 +5993,7 @@
     <row r="88" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A88" s="113"/>
       <c r="B88" s="104" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C88" s="123">
         <v>2.4566800535748499</v>
@@ -6035,7 +6041,7 @@
     <row r="89" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A89" s="113"/>
       <c r="B89" s="104" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C89" s="123">
         <v>1.5319501566570799</v>
@@ -6083,7 +6089,7 @@
     <row r="90" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="113"/>
       <c r="B90" s="130" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C90" s="131">
         <v>1.1483327069929501</v>
@@ -6131,7 +6137,7 @@
     <row r="91" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A91" s="113"/>
       <c r="B91" s="104" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C91" s="123">
         <v>2.0018778067728</v>
@@ -6179,7 +6185,7 @@
     <row r="92" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A92" s="113"/>
       <c r="B92" s="104" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C92" s="123">
         <v>1.4962293991684501</v>
@@ -6227,7 +6233,7 @@
     <row r="93" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A93" s="113"/>
       <c r="B93" s="104" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C93" s="123">
         <v>3.1583077612994899</v>
@@ -6275,7 +6281,7 @@
     <row r="94" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A94" s="113"/>
       <c r="B94" s="104" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C94" s="123">
         <v>18.355372914437901</v>
@@ -6323,7 +6329,7 @@
     <row r="95" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A95" s="113"/>
       <c r="B95" s="104" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C95" s="123">
         <v>2.33366652115809</v>
@@ -6371,7 +6377,7 @@
     <row r="96" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="113"/>
       <c r="B96" s="104" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C96" s="105">
         <v>1.9096305556893001</v>
@@ -6419,7 +6425,7 @@
     <row r="97" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A97" s="113"/>
       <c r="B97" s="139" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C97" s="140">
         <v>0.88528479002363003</v>
@@ -6467,7 +6473,7 @@
     <row r="98" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="113"/>
       <c r="B98" s="130" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C98" s="131">
         <v>0.97133543354522001</v>
@@ -6532,7 +6538,7 @@
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C100" s="153"/>
       <c r="D100" s="153"/>
@@ -6551,7 +6557,7 @@
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C101" s="153"/>
       <c r="D101" s="153"/>
@@ -6570,7 +6576,7 @@
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C102" s="153"/>
       <c r="D102" s="153"/>
@@ -6589,7 +6595,7 @@
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C103" s="153"/>
       <c r="D103" s="153"/>
@@ -6608,7 +6614,7 @@
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C104" s="153"/>
       <c r="D104" s="153"/>
@@ -6659,7 +6665,7 @@
     </row>
     <row r="107" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="155" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C107" s="153"/>
       <c r="D107" s="153"/>
@@ -6695,7 +6701,7 @@
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B109" s="2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C109" s="153"/>
       <c r="D109" s="153"/>
@@ -6714,7 +6720,7 @@
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B110" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C110" s="153"/>
       <c r="D110" s="153"/>
@@ -6733,7 +6739,7 @@
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B111" s="156" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C111" s="153"/>
       <c r="D111" s="153"/>
@@ -6752,7 +6758,7 @@
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B112" s="156" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C112" s="153"/>
       <c r="D112" s="153"/>
@@ -6822,11 +6828,11 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{896FC0C7-661E-4E9B-B157-C12307699454}"/>
-    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{7D1FD3B0-DD04-498F-8975-1AE460AD1476}"/>
-    <hyperlink ref="B112" r:id="rId3" xr:uid="{E0ACB8F0-D06D-47F5-899D-0B12B2E367CF}"/>
-    <hyperlink ref="B107" r:id="rId4" xr:uid="{5A647604-B0A0-4033-85B0-497FBE1D08F0}"/>
-    <hyperlink ref="B111" r:id="rId5" xr:uid="{EA02FE21-8360-42C5-9F6B-90EAD46116EC}"/>
+    <hyperlink ref="B109" r:id="rId1" location="Indicateurs!A1" display="Pour plus d'informations sur les indicateurs présentés dans ce tableau, consultez la liste des indicateurs, descriptions et détails." xr:uid="{0924F4B3-441B-446C-B96D-CCB12A2F074D}"/>
+    <hyperlink ref="B110" r:id="rId2" location="'Groupements de pays'!A1" display="Pour voir quels pays appartiennent à chaque groupe de pays, consultez la liste des pays et les groupes de pays utilisés pour agréger les indicateurs." xr:uid="{60603167-F708-4529-9EAA-D624DE7A257B}"/>
+    <hyperlink ref="B112" r:id="rId3" xr:uid="{838C6B14-3B74-4604-8AC1-98B7E1F3F52A}"/>
+    <hyperlink ref="B107" r:id="rId4" xr:uid="{A310EE43-A23A-4584-9C25-F27A0A4E6858}"/>
+    <hyperlink ref="B111" r:id="rId5" xr:uid="{5D8CEC7C-DFCE-4807-B405-8A60AFE5DD1B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="portrait" r:id="rId6"/>
